--- a/src/test/java/data/TestData.xlsx
+++ b/src/test/java/data/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6380"/>
+    <workbookView windowWidth="19200" windowHeight="6830"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>DestinationCountry</t>
   </si>
@@ -28,7 +28,19 @@
     <t>KUWAIT</t>
   </si>
   <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>UNITED STATES</t>
+  </si>
+  <si>
     <t>USD</t>
+  </si>
+  <si>
+    <t>INDIA</t>
+  </si>
+  <si>
+    <t>UNITED KINGDOM</t>
   </si>
 </sst>
 </file>
@@ -1024,13 +1036,13 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="4" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="32.5454545454545" customWidth="1"/>
-    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="1" max="1" width="23.6363636363636" customWidth="1"/>
+    <col min="2" max="2" width="13.9090909090909" customWidth="1"/>
     <col min="3" max="3" width="31.2727272727273" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1050,26 +1062,44 @@
         <v>3</v>
       </c>
       <c r="B2" s="4">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
+      <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4">
+        <v>110</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
+      <c r="A4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="4">
+        <v>150</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
+      <c r="A5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="4">
+        <v>112</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/java/data/TestData.xlsx
+++ b/src/test/java/data/TestData.xlsx
@@ -8,21 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harshal\IdeaProjects\Al_Mulla_exchange\src\test\java\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C70AFB51-C538-406D-91C9-3BC7041EEB94}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E8A0C43-34D4-4A26-846F-46563717B422}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>DestinationCountry</t>
   </si>
@@ -42,73 +42,70 @@
     <t>INDIA</t>
   </si>
   <si>
-    <t>UNITED KINGDOM</t>
+    <t>https://www.almullaexchange.com/kwt/en_US/#about-us</t>
+  </si>
+  <si>
+    <t>https://www.almullaexchange.com/kwt/en_US/#services</t>
+  </si>
+  <si>
+    <t>Services</t>
+  </si>
+  <si>
+    <t>https://www.almullaexchange.com/kwt/en_US/#branches</t>
+  </si>
+  <si>
+    <t>Branches</t>
+  </si>
+  <si>
+    <t>Promotions</t>
+  </si>
+  <si>
+    <t>https://www.almullaexchange.com/kwt/en_US/#promotions2</t>
+  </si>
+  <si>
+    <t>https://www.almullaexchange.com/kwt/en_US/#contacts</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>About_us</t>
+  </si>
+  <si>
+    <t>Remit_online</t>
+  </si>
+  <si>
+    <t>News</t>
+  </si>
+  <si>
+    <t>https://www.almullaexchange.com/kwt/en_US/news/</t>
+  </si>
+  <si>
+    <t>FAQS</t>
+  </si>
+  <si>
+    <t>https://www.almullaexchange.com/kwt/en_US/faq/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arabic </t>
+  </si>
+  <si>
+    <t>https://www.almullaexchange.com/kwt/ar/</t>
+  </si>
+  <si>
+    <t>https://app-kwt.almullaexchange.com/login</t>
+  </si>
+  <si>
+    <t>Length of Civil ID should be 12 digits</t>
+  </si>
+  <si>
+    <t>EUR</t>
   </si>
   <si>
     <t>EGYPT</t>
   </si>
   <si>
-    <t>CAD</t>
-  </si>
-  <si>
-    <t>https://www.almullaexchange.com/kwt/en_US/#about-us</t>
-  </si>
-  <si>
-    <t>https://www.almullaexchange.com/kwt/en_US/#services</t>
-  </si>
-  <si>
-    <t>Services</t>
-  </si>
-  <si>
-    <t>https://www.almullaexchange.com/kwt/en_US/#branches</t>
-  </si>
-  <si>
-    <t>Branches</t>
-  </si>
-  <si>
-    <t>Promotions</t>
-  </si>
-  <si>
-    <t>https://www.almullaexchange.com/kwt/en_US/#promotions2</t>
-  </si>
-  <si>
-    <t>https://www.almullaexchange.com/kwt/en_US/#contacts</t>
-  </si>
-  <si>
-    <t>Contact</t>
-  </si>
-  <si>
-    <t>About_us</t>
-  </si>
-  <si>
-    <t>Remit_online</t>
-  </si>
-  <si>
-    <t>News</t>
-  </si>
-  <si>
-    <t>https://www.almullaexchange.com/kwt/en_US/news/</t>
-  </si>
-  <si>
-    <t>FAQS</t>
-  </si>
-  <si>
-    <t>https://www.almullaexchange.com/kwt/en_US/faq/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arabic </t>
-  </si>
-  <si>
-    <t>https://www.almullaexchange.com/kwt/ar/</t>
-  </si>
-  <si>
-    <t>https://app-kwt.almullaexchange.com/login</t>
-  </si>
-  <si>
-    <t>validation_text</t>
-  </si>
-  <si>
-    <t>Length of Civil ID should be 12 digits</t>
+    <t>validation_text_less_than_3_digits</t>
   </si>
 </sst>
 </file>
@@ -511,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -543,12 +540,12 @@
         <v>80</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="B3" s="4">
         <v>110</v>
@@ -565,18 +562,7 @@
         <v>150</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="4">
-        <v>112</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -588,7 +574,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C77C054-7946-4AEB-991A-B2F4916E7909}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -607,60 +593,60 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>19</v>
       </c>
-      <c r="G1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" t="s">
-        <v>22</v>
-      </c>
       <c r="I1" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>15</v>
-      </c>
       <c r="E2" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -681,27 +667,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1571CC72-8CC9-47DA-8771-7D448E7D3580}">
-  <dimension ref="A1:A2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A53692B-F995-4417-B177-CF3F2D318637}">
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" activeCellId="1" sqref="A1 I11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28.140625" customWidth="1"/>
+    <col min="1" max="1" width="34.85546875" customWidth="1"/>
+    <col min="2" max="2" width="40.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="7" t="s">
-        <v>28</v>
-      </c>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/java/data/TestData.xlsx
+++ b/src/test/java/data/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harshal\IdeaProjects\Al_Mulla_exchange\src\test\java\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E8A0C43-34D4-4A26-846F-46563717B422}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8937A453-AF55-48D8-9969-C1F8429F6370}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -511,7 +511,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -559,7 +559,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="4">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>25</v>

--- a/src/test/java/data/TestData.xlsx
+++ b/src/test/java/data/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harshal\IdeaProjects\Al_Mulla_exchange\src\test\java\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8937A453-AF55-48D8-9969-C1F8429F6370}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A85987B9-57F1-4891-A0AB-54C9FDA78A4E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -510,7 +510,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -574,8 +574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C77C054-7946-4AEB-991A-B2F4916E7909}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
